--- a/data/evaluation/evaluation_South_Spring_Kohlrabi.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Kohlrabi.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5495.509181678536</v>
+        <v>5537.444665549504</v>
       </c>
       <c r="C3" t="n">
-        <v>47946741.86617307</v>
+        <v>49003516.05972145</v>
       </c>
       <c r="D3" t="n">
-        <v>6924.358588791677</v>
+        <v>7000.251142617774</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.5912975887192418</v>
+        <v>-0.6263707169561508</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5342.023780008069</v>
+        <v>5312.900495188929</v>
       </c>
       <c r="C4" t="n">
-        <v>45665586.32034185</v>
+        <v>44852203.58191746</v>
       </c>
       <c r="D4" t="n">
-        <v>6757.631709433554</v>
+        <v>6697.178777807671</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5155886421195615</v>
+        <v>-0.4885933982305548</v>
       </c>
     </row>
     <row r="5">
